--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf7-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf7-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Gdf7</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.076196</v>
+        <v>0.02913733333333333</v>
       </c>
       <c r="H2">
-        <v>0.228588</v>
+        <v>0.087412</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N2">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q2">
-        <v>3.329441341601333</v>
+        <v>1.348802600709778</v>
       </c>
       <c r="R2">
-        <v>29.964972074412</v>
+        <v>12.139223406388</v>
       </c>
       <c r="S2">
-        <v>0.3365063034544351</v>
+        <v>0.09374235089040941</v>
       </c>
       <c r="T2">
-        <v>0.3365063034544351</v>
+        <v>0.09374235089040941</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.076196</v>
+        <v>0.02913733333333333</v>
       </c>
       <c r="H3">
-        <v>0.228588</v>
+        <v>0.087412</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N3">
         <v>140.44867</v>
       </c>
       <c r="O3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q3">
-        <v>3.567208953106667</v>
+        <v>1.364099904671111</v>
       </c>
       <c r="R3">
-        <v>32.10488057796001</v>
+        <v>12.27689914204</v>
       </c>
       <c r="S3">
-        <v>0.3605374521727267</v>
+        <v>0.09480551998191765</v>
       </c>
       <c r="T3">
-        <v>0.3605374521727267</v>
+        <v>0.09480551998191765</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.076196</v>
+        <v>0.02913733333333333</v>
       </c>
       <c r="H4">
-        <v>0.228588</v>
+        <v>0.087412</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N4">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q4">
-        <v>1.619180493186667</v>
+        <v>1.122820028413778</v>
       </c>
       <c r="R4">
-        <v>14.57262443868</v>
+        <v>10.105380255724</v>
       </c>
       <c r="S4">
-        <v>0.1636504105297484</v>
+        <v>0.07803646659263205</v>
       </c>
       <c r="T4">
-        <v>0.1636504105297484</v>
+        <v>0.07803646659263205</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.076196</v>
+        <v>0.02913733333333333</v>
       </c>
       <c r="H5">
-        <v>0.228588</v>
+        <v>0.087412</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N5">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q5">
-        <v>1.378311780677334</v>
+        <v>0.4685124013035555</v>
       </c>
       <c r="R5">
-        <v>12.404806026096</v>
+        <v>4.216611611732</v>
       </c>
       <c r="S5">
-        <v>0.1393058338430899</v>
+        <v>0.03256180993156046</v>
       </c>
       <c r="T5">
-        <v>0.1393058338430899</v>
+        <v>0.03256180993156046</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.06826433333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.204793</v>
+      </c>
+      <c r="I6">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="J6">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>46.29121633333333</v>
+      </c>
+      <c r="N6">
+        <v>138.873649</v>
+      </c>
+      <c r="O6">
+        <v>0.3133663986859022</v>
+      </c>
+      <c r="P6">
+        <v>0.3133663986859022</v>
+      </c>
+      <c r="Q6">
+        <v>3.160039022184111</v>
+      </c>
+      <c r="R6">
+        <v>28.440351199657</v>
+      </c>
+      <c r="S6">
+        <v>0.2196240477954928</v>
+      </c>
+      <c r="T6">
+        <v>0.2196240477954928</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.06826433333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.204793</v>
+      </c>
+      <c r="I7">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="J7">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>46.81622333333333</v>
+      </c>
+      <c r="N7">
+        <v>140.44867</v>
+      </c>
+      <c r="O7">
+        <v>0.3169204109998198</v>
+      </c>
+      <c r="P7">
+        <v>0.3169204109998198</v>
+      </c>
+      <c r="Q7">
+        <v>3.195878275034444</v>
+      </c>
+      <c r="R7">
+        <v>28.76290447531</v>
+      </c>
+      <c r="S7">
+        <v>0.2221148910179021</v>
+      </c>
+      <c r="T7">
+        <v>0.2221148910179021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.06826433333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.204793</v>
+      </c>
+      <c r="I8">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="J8">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>38.53544233333333</v>
+      </c>
+      <c r="N8">
+        <v>115.606327</v>
+      </c>
+      <c r="O8">
+        <v>0.2608640200510233</v>
+      </c>
+      <c r="P8">
+        <v>0.2608640200510233</v>
+      </c>
+      <c r="Q8">
+        <v>2.630596280590111</v>
+      </c>
+      <c r="R8">
+        <v>23.675366525311</v>
+      </c>
+      <c r="S8">
+        <v>0.1828275534583913</v>
+      </c>
+      <c r="T8">
+        <v>0.1828275534583913</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.06826433333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.204793</v>
+      </c>
+      <c r="I9">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="J9">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>16.07945366666667</v>
+      </c>
+      <c r="N9">
+        <v>48.238361</v>
+      </c>
+      <c r="O9">
+        <v>0.1088491702632547</v>
+      </c>
+      <c r="P9">
+        <v>0.1088491702632547</v>
+      </c>
+      <c r="Q9">
+        <v>1.097653184919222</v>
+      </c>
+      <c r="R9">
+        <v>9.878878664273</v>
+      </c>
+      <c r="S9">
+        <v>0.07628736033169428</v>
+      </c>
+      <c r="T9">
+        <v>0.07628736033169428</v>
       </c>
     </row>
   </sheetData>
